--- a/utils/data/audits-xlsx/cs-audit.xlsx
+++ b/utils/data/audits-xlsx/cs-audit.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2597" uniqueCount="861">
   <si>
     <t xml:space="preserve">Type</t>
   </si>
@@ -2114,6 +2114,24 @@
   </si>
   <si>
     <t xml:space="preserve">ENGAGE in the Arts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38-330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGAGE in Wellness: Looking Outward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38-430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGAGE in Wellness: Looking Forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">38-101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EUREKA</t>
   </si>
   <si>
     <t xml:space="preserve">03-511</t>
@@ -2693,7 +2711,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2889,10 +2907,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G504"/>
+  <dimension ref="A1:G507"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A308" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q340" activeCellId="0" sqref="Q340"/>
+      <selection pane="topLeft" activeCell="L340" activeCellId="0" sqref="L340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9635,7 +9653,7 @@
       <c r="D335" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="G335" s="3" t="s">
+      <c r="G335" s="2" t="s">
         <v>678</v>
       </c>
     </row>
@@ -9652,7 +9670,7 @@
       <c r="D336" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="G336" s="3" t="s">
+      <c r="G336" s="2" t="s">
         <v>678</v>
       </c>
     </row>
@@ -9666,13 +9684,10 @@
       <c r="C337" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="D337" s="2" t="s">
+      <c r="D337" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="E337" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="G337" s="2" t="s">
+      <c r="G337" s="3" t="s">
         <v>678</v>
       </c>
     </row>
@@ -9686,13 +9701,10 @@
       <c r="C338" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="D338" s="2" t="s">
+      <c r="D338" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="E338" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="G338" s="2" t="s">
+      <c r="G338" s="3" t="s">
         <v>678</v>
       </c>
     </row>
@@ -9706,13 +9718,10 @@
       <c r="C339" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="D339" s="2" t="s">
+      <c r="D339" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="E339" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="G339" s="2" t="s">
+      <c r="G339" s="3" t="s">
         <v>678</v>
       </c>
     </row>
@@ -9730,7 +9739,7 @@
         <v>705</v>
       </c>
       <c r="E340" s="2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G340" s="2" t="s">
         <v>678</v>
@@ -9770,7 +9779,7 @@
         <v>709</v>
       </c>
       <c r="E342" s="2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G342" s="2" t="s">
         <v>678</v>
@@ -9790,7 +9799,7 @@
         <v>711</v>
       </c>
       <c r="E343" s="2" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G343" s="2" t="s">
         <v>678</v>
@@ -9810,7 +9819,7 @@
         <v>713</v>
       </c>
       <c r="E344" s="2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G344" s="2" t="s">
         <v>678</v>
@@ -9830,7 +9839,7 @@
         <v>715</v>
       </c>
       <c r="E345" s="2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G345" s="2" t="s">
         <v>678</v>
@@ -9867,14 +9876,11 @@
         <v>718</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="E347" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F347" s="2" t="s">
-        <v>719</v>
-      </c>
       <c r="G347" s="2" t="s">
         <v>678</v>
       </c>
@@ -9893,7 +9899,7 @@
         <v>721</v>
       </c>
       <c r="E348" s="2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G348" s="2" t="s">
         <v>678</v>
@@ -9913,7 +9919,7 @@
         <v>723</v>
       </c>
       <c r="E349" s="2" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G349" s="2" t="s">
         <v>678</v>
@@ -9930,10 +9936,13 @@
         <v>724</v>
       </c>
       <c r="D350" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="E350" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F350" s="2" t="s">
         <v>725</v>
-      </c>
-      <c r="E350" s="2" t="n">
-        <v>9</v>
       </c>
       <c r="G350" s="2" t="s">
         <v>678</v>
@@ -9967,13 +9976,13 @@
         <v>185</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>162</v>
+        <v>728</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>163</v>
+        <v>729</v>
       </c>
       <c r="E352" s="2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G352" s="2" t="s">
         <v>678</v>
@@ -9987,13 +9996,13 @@
         <v>185</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="E353" s="2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G353" s="2" t="s">
         <v>678</v>
@@ -10007,13 +10016,13 @@
         <v>185</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="E354" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G354" s="2" t="s">
         <v>678</v>
@@ -10027,13 +10036,13 @@
         <v>185</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>732</v>
+        <v>162</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>733</v>
+        <v>163</v>
       </c>
       <c r="E355" s="2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G355" s="2" t="s">
         <v>678</v>
@@ -10047,13 +10056,13 @@
         <v>185</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>23</v>
+        <v>734</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>20</v>
+        <v>735</v>
       </c>
       <c r="E356" s="2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G356" s="2" t="s">
         <v>678</v>
@@ -10067,13 +10076,13 @@
         <v>185</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>64</v>
+        <v>737</v>
       </c>
       <c r="E357" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G357" s="2" t="s">
         <v>678</v>
@@ -10087,10 +10096,10 @@
         <v>185</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="E358" s="2" t="n">
         <v>12</v>
@@ -10107,10 +10116,10 @@
         <v>185</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>737</v>
+        <v>23</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>738</v>
+        <v>20</v>
       </c>
       <c r="E359" s="2" t="n">
         <v>12</v>
@@ -10127,13 +10136,13 @@
         <v>185</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="E360" s="2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G360" s="2" t="s">
         <v>678</v>
@@ -10147,10 +10156,10 @@
         <v>185</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="E361" s="2" t="n">
         <v>12</v>
@@ -10167,10 +10176,10 @@
         <v>185</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E362" s="2" t="n">
         <v>12</v>
@@ -10187,13 +10196,13 @@
         <v>185</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>745</v>
+        <v>163</v>
       </c>
       <c r="E363" s="2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G363" s="2" t="s">
         <v>678</v>
@@ -10275,9 +10284,6 @@
       <c r="E367" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="F367" s="2" t="s">
-        <v>754</v>
-      </c>
       <c r="G367" s="2" t="s">
         <v>678</v>
       </c>
@@ -10290,17 +10296,14 @@
         <v>185</v>
       </c>
       <c r="C368" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="D368" s="2" t="s">
         <v>755</v>
-      </c>
-      <c r="D368" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="E368" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="F368" s="2" t="s">
-        <v>756</v>
-      </c>
       <c r="G368" s="2" t="s">
         <v>678</v>
       </c>
@@ -10313,10 +10316,10 @@
         <v>185</v>
       </c>
       <c r="C369" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="D369" s="2" t="s">
         <v>757</v>
-      </c>
-      <c r="D369" s="2" t="s">
-        <v>758</v>
       </c>
       <c r="E369" s="2" t="n">
         <v>12</v>
@@ -10333,14 +10336,17 @@
         <v>185</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>308</v>
+        <v>758</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>309</v>
+        <v>759</v>
       </c>
       <c r="E370" s="2" t="n">
         <v>12</v>
       </c>
+      <c r="F370" s="2" t="s">
+        <v>760</v>
+      </c>
       <c r="G370" s="2" t="s">
         <v>678</v>
       </c>
@@ -10353,13 +10359,16 @@
         <v>185</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="E371" s="2" t="n">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="F371" s="2" t="s">
+        <v>762</v>
       </c>
       <c r="G371" s="2" t="s">
         <v>678</v>
@@ -10373,13 +10382,13 @@
         <v>185</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="E372" s="2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G372" s="2" t="s">
         <v>678</v>
@@ -10393,13 +10402,13 @@
         <v>185</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>762</v>
+        <v>308</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>763</v>
+        <v>309</v>
       </c>
       <c r="E373" s="2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G373" s="2" t="s">
         <v>678</v>
@@ -10413,10 +10422,10 @@
         <v>185</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>765</v>
+        <v>163</v>
       </c>
       <c r="E374" s="2" t="n">
         <v>9</v>
@@ -10439,7 +10448,7 @@
         <v>767</v>
       </c>
       <c r="E375" s="2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G375" s="2" t="s">
         <v>678</v>
@@ -10516,13 +10525,10 @@
         <v>774</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>753</v>
+        <v>775</v>
       </c>
       <c r="E379" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="F379" s="2" t="s">
-        <v>775</v>
+        <v>9</v>
       </c>
       <c r="G379" s="2" t="s">
         <v>678</v>
@@ -10542,7 +10548,7 @@
         <v>777</v>
       </c>
       <c r="E380" s="2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G380" s="2" t="s">
         <v>678</v>
@@ -10579,10 +10585,13 @@
         <v>780</v>
       </c>
       <c r="D382" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="E382" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F382" s="2" t="s">
         <v>781</v>
-      </c>
-      <c r="E382" s="2" t="n">
-        <v>9</v>
       </c>
       <c r="G382" s="2" t="s">
         <v>678</v>
@@ -10602,7 +10611,7 @@
         <v>783</v>
       </c>
       <c r="E383" s="2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G383" s="2" t="s">
         <v>678</v>
@@ -10659,7 +10668,7 @@
         <v>788</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>199</v>
+        <v>789</v>
       </c>
       <c r="E386" s="2" t="n">
         <v>9</v>
@@ -10676,13 +10685,13 @@
         <v>185</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>226</v>
+        <v>791</v>
       </c>
       <c r="E387" s="2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G387" s="2" t="s">
         <v>678</v>
@@ -10696,10 +10705,10 @@
         <v>185</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="E388" s="2" t="n">
         <v>9</v>
@@ -10716,13 +10725,13 @@
         <v>185</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>793</v>
+        <v>199</v>
       </c>
       <c r="E389" s="2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G389" s="2" t="s">
         <v>678</v>
@@ -10736,13 +10745,13 @@
         <v>185</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>795</v>
+        <v>226</v>
       </c>
       <c r="E390" s="2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G390" s="2" t="s">
         <v>678</v>
@@ -10762,7 +10771,7 @@
         <v>797</v>
       </c>
       <c r="E391" s="2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G391" s="2" t="s">
         <v>678</v>
@@ -10782,7 +10791,7 @@
         <v>799</v>
       </c>
       <c r="E392" s="2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G392" s="2" t="s">
         <v>678</v>
@@ -10802,7 +10811,7 @@
         <v>801</v>
       </c>
       <c r="E393" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G393" s="2" t="s">
         <v>678</v>
@@ -10822,7 +10831,7 @@
         <v>803</v>
       </c>
       <c r="E394" s="2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G394" s="2" t="s">
         <v>678</v>
@@ -10842,7 +10851,7 @@
         <v>805</v>
       </c>
       <c r="E395" s="2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G395" s="2" t="s">
         <v>678</v>
@@ -10859,10 +10868,10 @@
         <v>806</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="E396" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G396" s="2" t="s">
         <v>678</v>
@@ -10876,10 +10885,10 @@
         <v>185</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E397" s="2" t="n">
         <v>9</v>
@@ -10896,13 +10905,13 @@
         <v>185</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="E398" s="2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G398" s="2" t="s">
         <v>678</v>
@@ -10916,13 +10925,13 @@
         <v>185</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D399" s="2" t="s">
         <v>812</v>
       </c>
       <c r="E399" s="2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G399" s="2" t="s">
         <v>678</v>
@@ -10930,53 +10939,62 @@
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="2" t="s">
-        <v>167</v>
+        <v>7</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>676</v>
+        <v>813</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>677</v>
+        <v>814</v>
+      </c>
+      <c r="E400" s="2" t="n">
+        <v>9</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>813</v>
+        <v>678</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="2" t="s">
-        <v>167</v>
+        <v>7</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>679</v>
+        <v>815</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>680</v>
+        <v>816</v>
+      </c>
+      <c r="E401" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>813</v>
+        <v>678</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="2" t="s">
-        <v>167</v>
+        <v>7</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>682</v>
+        <v>817</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>174</v>
+        <v>818</v>
+      </c>
+      <c r="E402" s="2" t="n">
+        <v>12</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>813</v>
+        <v>678</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10987,13 +11005,13 @@
         <v>8</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>174</v>
+        <v>677</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11004,13 +11022,13 @@
         <v>8</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11021,13 +11039,13 @@
         <v>8</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="D405" s="2" t="s">
         <v>174</v>
       </c>
       <c r="G405" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11038,13 +11056,13 @@
         <v>8</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>690</v>
+        <v>174</v>
       </c>
       <c r="G406" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11055,13 +11073,13 @@
         <v>8</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>174</v>
+        <v>685</v>
       </c>
       <c r="G407" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11072,73 +11090,64 @@
         <v>8</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D408" s="2" t="s">
         <v>174</v>
       </c>
       <c r="G408" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="2" t="s">
-        <v>7</v>
+        <v>167</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>185</v>
+        <v>8</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="E409" s="2" t="n">
-        <v>12</v>
+        <v>690</v>
       </c>
       <c r="G409" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="2" t="s">
-        <v>7</v>
+        <v>167</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>185</v>
+        <v>8</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="E410" s="2" t="n">
-        <v>12</v>
+        <v>174</v>
       </c>
       <c r="G410" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="2" t="s">
-        <v>7</v>
+        <v>167</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>185</v>
+        <v>8</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="E411" s="2" t="n">
-        <v>9</v>
+        <v>174</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11155,10 +11164,10 @@
         <v>709</v>
       </c>
       <c r="E412" s="2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11175,10 +11184,10 @@
         <v>711</v>
       </c>
       <c r="E413" s="2" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11195,10 +11204,10 @@
         <v>713</v>
       </c>
       <c r="E414" s="2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11215,10 +11224,10 @@
         <v>715</v>
       </c>
       <c r="E415" s="2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11238,7 +11247,7 @@
         <v>3</v>
       </c>
       <c r="G416" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11252,16 +11261,13 @@
         <v>718</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="E417" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="F417" s="2" t="s">
-        <v>719</v>
-      </c>
       <c r="G417" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11278,10 +11284,10 @@
         <v>721</v>
       </c>
       <c r="E418" s="2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11298,10 +11304,10 @@
         <v>723</v>
       </c>
       <c r="E419" s="2" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11315,13 +11321,16 @@
         <v>724</v>
       </c>
       <c r="D420" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="E420" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F420" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="E420" s="2" t="n">
-        <v>9</v>
-      </c>
       <c r="G420" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11341,7 +11350,7 @@
         <v>9</v>
       </c>
       <c r="G421" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11352,16 +11361,16 @@
         <v>185</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>162</v>
+        <v>728</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>163</v>
+        <v>729</v>
       </c>
       <c r="E422" s="2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G422" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11372,16 +11381,16 @@
         <v>185</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="E423" s="2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G423" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11392,16 +11401,16 @@
         <v>185</v>
       </c>
       <c r="C424" s="2" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="E424" s="2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G424" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11412,16 +11421,16 @@
         <v>185</v>
       </c>
       <c r="C425" s="2" t="s">
-        <v>732</v>
+        <v>162</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>733</v>
+        <v>163</v>
       </c>
       <c r="E425" s="2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G425" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11432,16 +11441,16 @@
         <v>185</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>23</v>
+        <v>734</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>20</v>
+        <v>735</v>
       </c>
       <c r="E426" s="2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G426" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11452,16 +11461,16 @@
         <v>185</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>64</v>
+        <v>737</v>
       </c>
       <c r="E427" s="2" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G427" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11472,16 +11481,16 @@
         <v>185</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="E428" s="2" t="n">
         <v>12</v>
       </c>
       <c r="G428" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11492,16 +11501,16 @@
         <v>185</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>737</v>
+        <v>23</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>738</v>
+        <v>20</v>
       </c>
       <c r="E429" s="2" t="n">
         <v>12</v>
       </c>
       <c r="G429" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11515,13 +11524,13 @@
         <v>740</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>741</v>
+        <v>64</v>
       </c>
       <c r="E430" s="2" t="n">
         <v>12</v>
       </c>
       <c r="G430" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11532,16 +11541,16 @@
         <v>185</v>
       </c>
       <c r="C431" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D431" s="2" t="s">
         <v>742</v>
-      </c>
-      <c r="D431" s="2" t="s">
-        <v>743</v>
       </c>
       <c r="E431" s="2" t="n">
         <v>12</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11552,16 +11561,16 @@
         <v>185</v>
       </c>
       <c r="C432" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D432" s="2" t="s">
         <v>744</v>
-      </c>
-      <c r="D432" s="2" t="s">
-        <v>745</v>
       </c>
       <c r="E432" s="2" t="n">
         <v>12</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11581,7 +11590,7 @@
         <v>12</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11601,7 +11610,7 @@
         <v>12</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11621,7 +11630,7 @@
         <v>12</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11640,11 +11649,8 @@
       <c r="E436" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="F436" s="2" t="s">
-        <v>754</v>
-      </c>
       <c r="G436" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11655,19 +11661,16 @@
         <v>185</v>
       </c>
       <c r="C437" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="D437" s="2" t="s">
         <v>755</v>
-      </c>
-      <c r="D437" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="E437" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="F437" s="2" t="s">
-        <v>756</v>
-      </c>
       <c r="G437" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11678,16 +11681,16 @@
         <v>185</v>
       </c>
       <c r="C438" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="D438" s="2" t="s">
         <v>757</v>
-      </c>
-      <c r="D438" s="2" t="s">
-        <v>758</v>
       </c>
       <c r="E438" s="2" t="n">
         <v>12</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11698,16 +11701,19 @@
         <v>185</v>
       </c>
       <c r="C439" s="2" t="s">
-        <v>308</v>
+        <v>758</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>309</v>
+        <v>759</v>
       </c>
       <c r="E439" s="2" t="n">
         <v>12</v>
       </c>
+      <c r="F439" s="2" t="s">
+        <v>760</v>
+      </c>
       <c r="G439" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11718,16 +11724,19 @@
         <v>185</v>
       </c>
       <c r="C440" s="2" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="E440" s="2" t="n">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="F440" s="2" t="s">
+        <v>762</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11738,16 +11747,16 @@
         <v>185</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="E441" s="2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11758,16 +11767,16 @@
         <v>185</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>762</v>
+        <v>308</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>763</v>
+        <v>309</v>
       </c>
       <c r="E442" s="2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G442" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11778,16 +11787,16 @@
         <v>185</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D443" s="2" t="s">
-        <v>765</v>
+        <v>163</v>
       </c>
       <c r="E443" s="2" t="n">
         <v>9</v>
       </c>
       <c r="G443" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11804,10 +11813,10 @@
         <v>767</v>
       </c>
       <c r="E444" s="2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G444" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11827,7 +11836,7 @@
         <v>9</v>
       </c>
       <c r="G445" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11847,7 +11856,7 @@
         <v>9</v>
       </c>
       <c r="G446" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11867,7 +11876,7 @@
         <v>9</v>
       </c>
       <c r="G447" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11881,16 +11890,13 @@
         <v>774</v>
       </c>
       <c r="D448" s="2" t="s">
-        <v>753</v>
+        <v>775</v>
       </c>
       <c r="E448" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="F448" s="2" t="s">
-        <v>775</v>
+        <v>9</v>
       </c>
       <c r="G448" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11907,10 +11913,10 @@
         <v>777</v>
       </c>
       <c r="E449" s="2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G449" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11930,7 +11936,7 @@
         <v>9</v>
       </c>
       <c r="G450" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11944,13 +11950,16 @@
         <v>780</v>
       </c>
       <c r="D451" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="E451" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F451" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="E451" s="2" t="n">
-        <v>9</v>
-      </c>
       <c r="G451" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11967,10 +11976,10 @@
         <v>783</v>
       </c>
       <c r="E452" s="2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G452" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11990,7 +11999,7 @@
         <v>9</v>
       </c>
       <c r="G453" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12010,7 +12019,7 @@
         <v>9</v>
       </c>
       <c r="G454" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12024,13 +12033,13 @@
         <v>788</v>
       </c>
       <c r="D455" s="2" t="s">
-        <v>199</v>
+        <v>789</v>
       </c>
       <c r="E455" s="2" t="n">
         <v>9</v>
       </c>
       <c r="G455" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12041,16 +12050,16 @@
         <v>185</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D456" s="2" t="s">
-        <v>226</v>
+        <v>791</v>
       </c>
       <c r="E456" s="2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G456" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12067,10 +12076,10 @@
         <v>793</v>
       </c>
       <c r="E457" s="2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G457" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12084,13 +12093,13 @@
         <v>794</v>
       </c>
       <c r="D458" s="2" t="s">
-        <v>795</v>
+        <v>199</v>
       </c>
       <c r="E458" s="2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G458" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12101,16 +12110,16 @@
         <v>185</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D459" s="2" t="s">
-        <v>797</v>
+        <v>226</v>
       </c>
       <c r="E459" s="2" t="n">
         <v>12</v>
       </c>
       <c r="G459" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12127,10 +12136,10 @@
         <v>799</v>
       </c>
       <c r="E460" s="2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G460" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12147,10 +12156,10 @@
         <v>801</v>
       </c>
       <c r="E461" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G461" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12167,10 +12176,10 @@
         <v>803</v>
       </c>
       <c r="E462" s="2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G462" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12187,10 +12196,10 @@
         <v>805</v>
       </c>
       <c r="E463" s="2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G463" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12204,13 +12213,13 @@
         <v>806</v>
       </c>
       <c r="D464" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="E464" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G464" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12221,16 +12230,16 @@
         <v>185</v>
       </c>
       <c r="C465" s="2" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D465" s="2" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E465" s="2" t="n">
         <v>9</v>
       </c>
       <c r="G465" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12241,16 +12250,16 @@
         <v>185</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D466" s="2" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="E466" s="2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G466" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12261,16 +12270,16 @@
         <v>185</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D467" s="2" t="s">
         <v>812</v>
       </c>
       <c r="E467" s="2" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G467" s="2" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12278,19 +12287,19 @@
         <v>7</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>186</v>
+        <v>813</v>
       </c>
       <c r="D468" s="2" t="s">
-        <v>187</v>
+        <v>814</v>
       </c>
       <c r="E468" s="2" t="n">
         <v>9</v>
       </c>
       <c r="G468" s="2" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12298,19 +12307,19 @@
         <v>7</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="C469" s="2" t="s">
-        <v>191</v>
+        <v>815</v>
       </c>
       <c r="D469" s="2" t="s">
-        <v>192</v>
+        <v>816</v>
       </c>
       <c r="E469" s="2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G469" s="2" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12318,19 +12327,19 @@
         <v>7</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>193</v>
+        <v>817</v>
       </c>
       <c r="D470" s="2" t="s">
-        <v>194</v>
+        <v>818</v>
       </c>
       <c r="E470" s="2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G470" s="2" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12341,33 +12350,36 @@
         <v>8</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>662</v>
+        <v>186</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>663</v>
+        <v>187</v>
       </c>
       <c r="E471" s="2" t="n">
         <v>9</v>
       </c>
       <c r="G471" s="2" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="2" t="s">
-        <v>167</v>
+        <v>7</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C472" s="2" t="s">
-        <v>686</v>
+        <v>191</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>687</v>
+        <v>192</v>
+      </c>
+      <c r="E472" s="2" t="n">
+        <v>9</v>
       </c>
       <c r="G472" s="2" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12375,19 +12387,19 @@
         <v>7</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>185</v>
+        <v>8</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>698</v>
+        <v>193</v>
       </c>
       <c r="D473" s="2" t="s">
-        <v>699</v>
+        <v>194</v>
       </c>
       <c r="E473" s="2" t="n">
         <v>9</v>
       </c>
       <c r="G473" s="2" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12395,39 +12407,36 @@
         <v>7</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>185</v>
+        <v>8</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>700</v>
+        <v>662</v>
       </c>
       <c r="D474" s="2" t="s">
-        <v>701</v>
+        <v>663</v>
       </c>
       <c r="E474" s="2" t="n">
         <v>9</v>
       </c>
       <c r="G474" s="2" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="2" t="s">
-        <v>7</v>
+        <v>167</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C475" s="2" t="s">
-        <v>191</v>
+        <v>686</v>
       </c>
       <c r="D475" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E475" s="2" t="n">
-        <v>9</v>
+        <v>687</v>
       </c>
       <c r="G475" s="2" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12435,19 +12444,19 @@
         <v>7</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="C476" s="2" t="s">
-        <v>193</v>
+        <v>704</v>
       </c>
       <c r="D476" s="2" t="s">
-        <v>194</v>
+        <v>705</v>
       </c>
       <c r="E476" s="2" t="n">
         <v>9</v>
       </c>
       <c r="G476" s="2" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12455,19 +12464,19 @@
         <v>7</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>817</v>
+        <v>706</v>
       </c>
       <c r="D477" s="2" t="s">
-        <v>818</v>
+        <v>707</v>
       </c>
       <c r="E477" s="2" t="n">
         <v>9</v>
       </c>
       <c r="G477" s="2" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12478,16 +12487,16 @@
         <v>8</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>819</v>
+        <v>191</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>820</v>
+        <v>192</v>
       </c>
       <c r="E478" s="2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G478" s="2" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12498,16 +12507,16 @@
         <v>8</v>
       </c>
       <c r="C479" s="2" t="s">
-        <v>821</v>
+        <v>193</v>
       </c>
       <c r="D479" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E479" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="G479" s="2" t="s">
         <v>822</v>
-      </c>
-      <c r="E479" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="G479" s="2" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12521,13 +12530,13 @@
         <v>823</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>194</v>
+        <v>824</v>
       </c>
       <c r="E480" s="2" t="n">
         <v>9</v>
       </c>
       <c r="G480" s="2" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12538,16 +12547,16 @@
         <v>8</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D481" s="2" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E481" s="2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G481" s="2" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12558,16 +12567,16 @@
         <v>8</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D482" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E482" s="2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G482" s="2" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12578,16 +12587,16 @@
         <v>8</v>
       </c>
       <c r="C483" s="2" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>829</v>
+        <v>194</v>
       </c>
       <c r="E483" s="2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G483" s="2" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12604,10 +12613,10 @@
         <v>831</v>
       </c>
       <c r="E484" s="2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G484" s="2" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12624,10 +12633,10 @@
         <v>833</v>
       </c>
       <c r="E485" s="2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G485" s="2" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12641,13 +12650,13 @@
         <v>834</v>
       </c>
       <c r="D486" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="E486" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="G486" s="2" t="s">
         <v>822</v>
-      </c>
-      <c r="E486" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="G486" s="2" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12658,19 +12667,16 @@
         <v>8</v>
       </c>
       <c r="C487" s="2" t="s">
-        <v>664</v>
+        <v>836</v>
       </c>
       <c r="D487" s="2" t="s">
-        <v>665</v>
+        <v>837</v>
       </c>
       <c r="E487" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="F487" s="2" t="s">
-        <v>666</v>
-      </c>
       <c r="G487" s="2" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12681,16 +12687,16 @@
         <v>8</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>667</v>
+        <v>838</v>
       </c>
       <c r="D488" s="2" t="s">
-        <v>668</v>
+        <v>839</v>
       </c>
       <c r="E488" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G488" s="2" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12701,16 +12707,16 @@
         <v>8</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="E489" s="2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G489" s="2" t="s">
-        <v>837</v>
+        <v>822</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12721,16 +12727,19 @@
         <v>8</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>838</v>
+        <v>664</v>
       </c>
       <c r="D490" s="2" t="s">
-        <v>839</v>
+        <v>665</v>
       </c>
       <c r="E490" s="2" t="n">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="F490" s="2" t="s">
+        <v>666</v>
       </c>
       <c r="G490" s="2" t="s">
-        <v>837</v>
+        <v>822</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12741,16 +12750,16 @@
         <v>8</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>840</v>
+        <v>667</v>
       </c>
       <c r="D491" s="2" t="s">
-        <v>841</v>
+        <v>668</v>
       </c>
       <c r="E491" s="2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G491" s="2" t="s">
-        <v>842</v>
+        <v>822</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12761,16 +12770,16 @@
         <v>8</v>
       </c>
       <c r="C492" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="D492" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="E492" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="G492" s="2" t="s">
         <v>843</v>
-      </c>
-      <c r="D492" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="E492" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="G492" s="2" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12781,16 +12790,16 @@
         <v>8</v>
       </c>
       <c r="C493" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="D493" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="D493" s="2" t="s">
-        <v>846</v>
-      </c>
       <c r="E493" s="2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G493" s="2" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12801,16 +12810,16 @@
         <v>8</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>819</v>
+        <v>846</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>820</v>
+        <v>847</v>
       </c>
       <c r="E494" s="2" t="n">
         <v>10</v>
       </c>
       <c r="G494" s="2" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12821,13 +12830,13 @@
         <v>8</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>191</v>
+        <v>849</v>
       </c>
       <c r="D495" s="2" t="s">
-        <v>192</v>
+        <v>850</v>
       </c>
       <c r="E495" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G495" s="2" t="s">
         <v>848</v>
@@ -12841,19 +12850,16 @@
         <v>8</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="E496" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="F496" s="2" t="s">
-        <v>851</v>
+        <v>9</v>
       </c>
       <c r="G496" s="2" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12864,16 +12870,16 @@
         <v>8</v>
       </c>
       <c r="C497" s="2" t="s">
-        <v>845</v>
+        <v>825</v>
       </c>
       <c r="D497" s="2" t="s">
-        <v>846</v>
+        <v>826</v>
       </c>
       <c r="E497" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G497" s="2" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12884,16 +12890,16 @@
         <v>8</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>819</v>
+        <v>191</v>
       </c>
       <c r="D498" s="2" t="s">
-        <v>820</v>
+        <v>192</v>
       </c>
       <c r="E498" s="2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G498" s="2" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12904,16 +12910,19 @@
         <v>8</v>
       </c>
       <c r="C499" s="2" t="s">
-        <v>191</v>
+        <v>855</v>
       </c>
       <c r="D499" s="2" t="s">
-        <v>192</v>
+        <v>856</v>
       </c>
       <c r="E499" s="2" t="n">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="F499" s="2" t="s">
+        <v>857</v>
       </c>
       <c r="G499" s="2" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12924,16 +12933,16 @@
         <v>8</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>193</v>
+        <v>851</v>
       </c>
       <c r="D500" s="2" t="s">
-        <v>194</v>
+        <v>852</v>
       </c>
       <c r="E500" s="2" t="n">
         <v>9</v>
       </c>
       <c r="G500" s="2" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12944,19 +12953,16 @@
         <v>8</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>849</v>
+        <v>825</v>
       </c>
       <c r="D501" s="2" t="s">
-        <v>850</v>
+        <v>826</v>
       </c>
       <c r="E501" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="F501" s="2" t="s">
-        <v>851</v>
+        <v>10</v>
       </c>
       <c r="G501" s="2" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12976,7 +12982,7 @@
         <v>9</v>
       </c>
       <c r="G502" s="2" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12996,7 +13002,7 @@
         <v>9</v>
       </c>
       <c r="G503" s="2" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13007,19 +13013,82 @@
         <v>8</v>
       </c>
       <c r="C504" s="2" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="E504" s="2" t="n">
         <v>12</v>
       </c>
       <c r="F504" s="2" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="G504" s="2" t="s">
-        <v>854</v>
+        <v>859</v>
+      </c>
+    </row>
+    <row r="505" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A505" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B505" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C505" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D505" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E505" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="G505" s="2" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="506" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A506" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B506" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C506" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D506" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E506" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="G506" s="2" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B507" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C507" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="D507" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="E507" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F507" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="G507" s="2" t="s">
+        <v>860</v>
       </c>
     </row>
   </sheetData>

--- a/utils/data/audits-xlsx/cs-audit.xlsx
+++ b/utils/data/audits-xlsx/cs-audit.xlsx
@@ -2116,10 +2116,10 @@
     <t xml:space="preserve">ENGAGE in the Arts</t>
   </si>
   <si>
-    <t xml:space="preserve">38-330</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENGAGE in Wellness: Looking Outward</t>
+    <t xml:space="preserve">38-230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGAGE in Wellness: Looking Inward</t>
   </si>
   <si>
     <t xml:space="preserve">38-430</t>
@@ -2612,7 +2612,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2641,12 +2641,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2698,7 +2692,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2708,10 +2702,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2907,10 +2897,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G507"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A308" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L340" activeCellId="0" sqref="L340"/>
+      <selection pane="topLeft" activeCell="A338" activeCellId="0" sqref="A338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9684,10 +9674,10 @@
       <c r="C337" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="D337" s="3" t="s">
+      <c r="D337" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="G337" s="3" t="s">
+      <c r="G337" s="2" t="s">
         <v>678</v>
       </c>
     </row>
@@ -9701,10 +9691,10 @@
       <c r="C338" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="D338" s="3" t="s">
+      <c r="D338" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="G338" s="3" t="s">
+      <c r="G338" s="2" t="s">
         <v>678</v>
       </c>
     </row>
@@ -9718,10 +9708,10 @@
       <c r="C339" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="D339" s="3" t="s">
+      <c r="D339" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="G339" s="3" t="s">
+      <c r="G339" s="2" t="s">
         <v>678</v>
       </c>
     </row>
@@ -13091,6 +13081,7 @@
         <v>860</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
